--- a/advisors/excel/template.xlsx
+++ b/advisors/excel/template.xlsx
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,14 +86,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -185,42 +177,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,7 +495,7 @@
   <dimension ref="A2:K476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,19 +512,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -605,15 +594,15 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -628,38 +617,38 @@
       <c r="E14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
@@ -688,7 +677,7 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="7"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -701,7 +690,7 @@
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="7"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -714,7 +703,7 @@
       <c r="K20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="7"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -727,7 +716,7 @@
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="7"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -740,7 +729,7 @@
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="7"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -753,11 +742,11 @@
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -766,11 +755,11 @@
       <c r="K24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -779,11 +768,11 @@
       <c r="K25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -792,11 +781,11 @@
       <c r="K26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -805,11 +794,11 @@
       <c r="K27"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
@@ -818,11 +807,11 @@
       <c r="K28"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -831,11 +820,11 @@
       <c r="K29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -844,11 +833,11 @@
       <c r="K30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
@@ -857,11 +846,11 @@
       <c r="K31"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
@@ -870,11 +859,11 @@
       <c r="K32"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
@@ -883,11 +872,11 @@
       <c r="K33"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
@@ -896,11 +885,11 @@
       <c r="K34"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
@@ -909,11 +898,11 @@
       <c r="K35"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
@@ -922,11 +911,11 @@
       <c r="K36"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
@@ -935,11 +924,11 @@
       <c r="K37"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
@@ -948,11 +937,11 @@
       <c r="K38"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
@@ -961,7 +950,7 @@
       <c r="K39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="7"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -974,7 +963,7 @@
       <c r="K40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="7"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -987,7 +976,7 @@
       <c r="K41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="7"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -1000,7 +989,7 @@
       <c r="K42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="7"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -1013,7 +1002,7 @@
       <c r="K43"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="7"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -1026,7 +1015,7 @@
       <c r="K44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="7"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -1039,7 +1028,7 @@
       <c r="K45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="7"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -1052,7 +1041,7 @@
       <c r="K46"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="7"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -1065,7 +1054,7 @@
       <c r="K47"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="7"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -1078,7 +1067,7 @@
       <c r="K48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="7"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -1091,7 +1080,7 @@
       <c r="K49"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="7"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -1104,7 +1093,7 @@
       <c r="K50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="7"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -1117,7 +1106,7 @@
       <c r="K51"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="7"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -1130,7 +1119,7 @@
       <c r="K52"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="7"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -1143,7 +1132,7 @@
       <c r="K53"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="7"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -1156,7 +1145,7 @@
       <c r="K54"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="7"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -1169,7 +1158,7 @@
       <c r="K55"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="7"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -1182,7 +1171,7 @@
       <c r="K56"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="7"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -1195,7 +1184,7 @@
       <c r="K57"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="7"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -1208,7 +1197,7 @@
       <c r="K58"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="7"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -1221,7 +1210,7 @@
       <c r="K59"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="7"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -1234,7 +1223,7 @@
       <c r="K60"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="7"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -1247,7 +1236,7 @@
       <c r="K61"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="7"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -1260,7 +1249,7 @@
       <c r="K62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="7"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -1273,7 +1262,7 @@
       <c r="K63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="7"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -1286,7 +1275,7 @@
       <c r="K64"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="7"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -1299,7 +1288,7 @@
       <c r="K65"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="7"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -1312,7 +1301,7 @@
       <c r="K66"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="7"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -1325,7 +1314,7 @@
       <c r="K67"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="7"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -1338,7 +1327,7 @@
       <c r="K68"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="7"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -1351,7 +1340,7 @@
       <c r="K69"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
+      <c r="A70" s="7"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -1364,7 +1353,7 @@
       <c r="K70"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="7"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -1377,7 +1366,7 @@
       <c r="K71"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="7"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -1390,7 +1379,7 @@
       <c r="K72"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
+      <c r="A73" s="7"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -1403,7 +1392,7 @@
       <c r="K73"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
+      <c r="A74" s="7"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -1416,7 +1405,7 @@
       <c r="K74"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="7"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -1429,7 +1418,7 @@
       <c r="K75"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
+      <c r="A76" s="7"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -1442,7 +1431,7 @@
       <c r="K76"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="7"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -1455,7 +1444,7 @@
       <c r="K77"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="7"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -1468,7 +1457,7 @@
       <c r="K78"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="7"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -1481,7 +1470,7 @@
       <c r="K79"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="7"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -1494,7 +1483,7 @@
       <c r="K80"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="7"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -1507,7 +1496,7 @@
       <c r="K81"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
+      <c r="A82" s="7"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -1520,7 +1509,7 @@
       <c r="K82"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="7"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -1533,7 +1522,7 @@
       <c r="K83"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="7"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -1546,7 +1535,7 @@
       <c r="K84"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="7"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -1559,7 +1548,7 @@
       <c r="K85"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="7"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -1572,7 +1561,7 @@
       <c r="K86"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="7"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -1585,7 +1574,7 @@
       <c r="K87"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="7"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -1598,7 +1587,7 @@
       <c r="K88"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="7"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -1611,7 +1600,7 @@
       <c r="K89"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="7"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -1624,7 +1613,7 @@
       <c r="K90"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="7"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -1637,7 +1626,7 @@
       <c r="K91"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="7"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -1650,7 +1639,7 @@
       <c r="K92"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="7"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -1663,7 +1652,7 @@
       <c r="K93"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="7"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -1676,7 +1665,7 @@
       <c r="K94"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="7"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -1689,7 +1678,7 @@
       <c r="K95"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="7"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -1702,7 +1691,7 @@
       <c r="K96"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="7"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
@@ -1715,7 +1704,7 @@
       <c r="K97"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="7"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
@@ -1728,7 +1717,7 @@
       <c r="K98"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
+      <c r="A99" s="7"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -1741,7 +1730,7 @@
       <c r="K99"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="7"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -1754,7 +1743,7 @@
       <c r="K100"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
+      <c r="A101" s="7"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -1767,7 +1756,7 @@
       <c r="K101"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
+      <c r="A102" s="7"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -1780,7 +1769,7 @@
       <c r="K102"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="7"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
@@ -1793,7 +1782,7 @@
       <c r="K103"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
+      <c r="A104" s="7"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
@@ -1806,7 +1795,7 @@
       <c r="K104"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
+      <c r="A105" s="7"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
@@ -1819,7 +1808,7 @@
       <c r="K105"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="7"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
@@ -1832,7 +1821,7 @@
       <c r="K106"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
+      <c r="A107" s="7"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -1845,7 +1834,7 @@
       <c r="K107"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
+      <c r="A108" s="7"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -1858,7 +1847,7 @@
       <c r="K108"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="7"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
@@ -1871,7 +1860,7 @@
       <c r="K109"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="A110" s="7"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
@@ -1884,7 +1873,7 @@
       <c r="K110"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
+      <c r="A111" s="7"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
@@ -1897,7 +1886,7 @@
       <c r="K111"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
+      <c r="A112" s="7"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -1910,7 +1899,7 @@
       <c r="K112"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
+      <c r="A113" s="7"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -1923,7 +1912,7 @@
       <c r="K113"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="7"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -1936,7 +1925,7 @@
       <c r="K114"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="7"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
@@ -1949,7 +1938,7 @@
       <c r="K115"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="7"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
@@ -1962,7 +1951,7 @@
       <c r="K116"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="7"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -1975,7 +1964,7 @@
       <c r="K117"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="7"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -1988,7 +1977,7 @@
       <c r="K118"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="7"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -2001,7 +1990,7 @@
       <c r="K119"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="7"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -2014,7 +2003,7 @@
       <c r="K120"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
+      <c r="A121" s="7"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -2027,7 +2016,7 @@
       <c r="K121"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
+      <c r="A122" s="7"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -2040,7 +2029,7 @@
       <c r="K122"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
+      <c r="A123" s="7"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -2053,7 +2042,7 @@
       <c r="K123"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
+      <c r="A124" s="7"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -2066,7 +2055,7 @@
       <c r="K124"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
+      <c r="A125" s="7"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -2079,7 +2068,7 @@
       <c r="K125"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="7"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -2092,7 +2081,7 @@
       <c r="K126"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="7"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -2105,7 +2094,7 @@
       <c r="K127"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="7"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -2118,7 +2107,7 @@
       <c r="K128"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
+      <c r="A129" s="7"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -2131,7 +2120,7 @@
       <c r="K129"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
+      <c r="A130" s="7"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -2144,7 +2133,7 @@
       <c r="K130"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
+      <c r="A131" s="7"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -2157,7 +2146,7 @@
       <c r="K131"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
+      <c r="A132" s="7"/>
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -2170,7 +2159,7 @@
       <c r="K132"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
+      <c r="A133" s="7"/>
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -2183,7 +2172,7 @@
       <c r="K133"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
+      <c r="A134" s="7"/>
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
@@ -2196,7 +2185,7 @@
       <c r="K134"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
+      <c r="A135" s="7"/>
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
@@ -2209,7 +2198,7 @@
       <c r="K135"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
+      <c r="A136" s="7"/>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
@@ -2222,7 +2211,7 @@
       <c r="K136"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
+      <c r="A137" s="7"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
@@ -2235,7 +2224,7 @@
       <c r="K137"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="7"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
@@ -2248,7 +2237,7 @@
       <c r="K138"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="7"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
@@ -2261,7 +2250,7 @@
       <c r="K139"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="7"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
@@ -2274,7 +2263,7 @@
       <c r="K140"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
+      <c r="A141" s="7"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
@@ -2287,7 +2276,7 @@
       <c r="K141"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
+      <c r="A142" s="7"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
@@ -2300,7 +2289,7 @@
       <c r="K142"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
+      <c r="A143" s="7"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
@@ -2313,7 +2302,7 @@
       <c r="K143"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
+      <c r="A144" s="7"/>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
@@ -2326,7 +2315,7 @@
       <c r="K144"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
+      <c r="A145" s="7"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
@@ -2339,7 +2328,7 @@
       <c r="K145"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
+      <c r="A146" s="7"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
@@ -2352,7 +2341,7 @@
       <c r="K146"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
+      <c r="A147" s="7"/>
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
@@ -2365,7 +2354,7 @@
       <c r="K147"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="7"/>
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
@@ -2378,7 +2367,7 @@
       <c r="K148"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
+      <c r="A149" s="7"/>
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
@@ -2391,7 +2380,7 @@
       <c r="K149"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
+      <c r="A150" s="7"/>
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
@@ -2404,7 +2393,7 @@
       <c r="K150"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
+      <c r="A151" s="7"/>
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
@@ -2417,7 +2406,7 @@
       <c r="K151"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
+      <c r="A152" s="7"/>
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
@@ -2430,9 +2419,9 @@
       <c r="K152"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153"/>
@@ -2443,9 +2432,9 @@
       <c r="K153"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154"/>
@@ -2456,9 +2445,9 @@
       <c r="K154"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
       <c r="D155"/>
       <c r="E155"/>
       <c r="F155"/>
@@ -2469,9 +2458,9 @@
       <c r="K155"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
       <c r="D156"/>
       <c r="E156"/>
       <c r="F156"/>
@@ -2482,9 +2471,9 @@
       <c r="K156"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157"/>
@@ -2495,9 +2484,9 @@
       <c r="K157"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
       <c r="D158"/>
       <c r="E158"/>
       <c r="F158"/>
@@ -2508,9 +2497,9 @@
       <c r="K158"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159"/>
@@ -2521,9 +2510,9 @@
       <c r="K159"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160"/>
@@ -2534,9 +2523,9 @@
       <c r="K160"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
       <c r="D161"/>
       <c r="E161"/>
       <c r="F161"/>
@@ -2547,9 +2536,9 @@
       <c r="K161"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162"/>
@@ -2560,9 +2549,9 @@
       <c r="K162"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
       <c r="D163"/>
       <c r="E163"/>
       <c r="F163"/>
@@ -2573,9 +2562,9 @@
       <c r="K163"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164"/>
@@ -2586,9 +2575,9 @@
       <c r="K164"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
       <c r="D165"/>
       <c r="E165"/>
       <c r="F165"/>
@@ -2599,9 +2588,9 @@
       <c r="K165"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
       <c r="D166"/>
       <c r="E166"/>
       <c r="F166"/>
@@ -2612,9 +2601,9 @@
       <c r="K166"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
       <c r="D167"/>
       <c r="E167"/>
       <c r="F167"/>
@@ -2625,9 +2614,9 @@
       <c r="K167"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
       <c r="D168"/>
       <c r="E168"/>
       <c r="F168"/>
@@ -2638,9 +2627,9 @@
       <c r="K168"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
       <c r="D169"/>
       <c r="E169"/>
       <c r="F169"/>
@@ -2651,9 +2640,9 @@
       <c r="K169"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
       <c r="D170"/>
       <c r="E170"/>
       <c r="F170"/>
@@ -2664,9 +2653,9 @@
       <c r="K170"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
       <c r="D171"/>
       <c r="E171"/>
       <c r="F171"/>
@@ -2677,9 +2666,9 @@
       <c r="K171"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
       <c r="D172"/>
       <c r="E172"/>
       <c r="F172"/>
@@ -2690,9 +2679,9 @@
       <c r="K172"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
       <c r="D173"/>
       <c r="E173"/>
       <c r="F173"/>
@@ -2703,9 +2692,9 @@
       <c r="K173"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
       <c r="D174"/>
       <c r="E174"/>
       <c r="F174"/>
@@ -2716,9 +2705,9 @@
       <c r="K174"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
       <c r="D175"/>
       <c r="E175"/>
       <c r="F175"/>
@@ -2729,9 +2718,9 @@
       <c r="K175"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
       <c r="D176"/>
       <c r="E176"/>
       <c r="F176"/>
@@ -2742,9 +2731,9 @@
       <c r="K176"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
       <c r="D177"/>
       <c r="E177"/>
       <c r="F177"/>
@@ -2755,9 +2744,9 @@
       <c r="K177"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
       <c r="D178"/>
       <c r="E178"/>
       <c r="F178"/>
@@ -2768,9 +2757,9 @@
       <c r="K178"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
       <c r="D179"/>
       <c r="E179"/>
       <c r="F179"/>
@@ -2781,9 +2770,9 @@
       <c r="K179"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
       <c r="D180"/>
       <c r="E180"/>
       <c r="F180"/>
@@ -2794,9 +2783,9 @@
       <c r="K180"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
       <c r="D181"/>
       <c r="E181"/>
       <c r="F181"/>
@@ -2807,9 +2796,9 @@
       <c r="K181"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
       <c r="D182"/>
       <c r="E182"/>
       <c r="F182"/>
@@ -2820,9 +2809,9 @@
       <c r="K182"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
       <c r="D183"/>
       <c r="E183"/>
       <c r="F183"/>
@@ -2833,9 +2822,9 @@
       <c r="K183"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
       <c r="D184"/>
       <c r="E184"/>
       <c r="F184"/>
@@ -2846,9 +2835,9 @@
       <c r="K184"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
       <c r="D185"/>
       <c r="E185"/>
       <c r="F185"/>
@@ -2859,9 +2848,9 @@
       <c r="K185"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
       <c r="D186"/>
       <c r="E186"/>
       <c r="F186"/>
@@ -2872,9 +2861,9 @@
       <c r="K186"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
       <c r="D187"/>
       <c r="E187"/>
       <c r="F187"/>
@@ -2885,9 +2874,9 @@
       <c r="K187"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
       <c r="D188"/>
       <c r="E188"/>
       <c r="F188"/>
@@ -2898,9 +2887,9 @@
       <c r="K188"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
       <c r="D189"/>
       <c r="E189"/>
       <c r="F189"/>
@@ -2911,9 +2900,9 @@
       <c r="K189"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
       <c r="D190"/>
       <c r="E190"/>
       <c r="F190"/>
@@ -2924,9 +2913,9 @@
       <c r="K190"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
       <c r="D191"/>
       <c r="E191"/>
       <c r="F191"/>
@@ -2937,9 +2926,9 @@
       <c r="K191"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
       <c r="D192"/>
       <c r="E192"/>
       <c r="F192"/>
@@ -2950,9 +2939,9 @@
       <c r="K192"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
       <c r="D193"/>
       <c r="E193"/>
       <c r="F193"/>
@@ -2963,9 +2952,9 @@
       <c r="K193"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
       <c r="D194"/>
       <c r="E194"/>
       <c r="F194"/>
@@ -2976,9 +2965,9 @@
       <c r="K194"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
       <c r="D195"/>
       <c r="E195"/>
       <c r="F195"/>
@@ -2989,9 +2978,9 @@
       <c r="K195"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
+      <c r="A196" s="7"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
       <c r="D196"/>
       <c r="E196"/>
       <c r="F196"/>
@@ -3002,9 +2991,9 @@
       <c r="K196"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
       <c r="D197"/>
       <c r="E197"/>
       <c r="F197"/>
@@ -3015,9 +3004,9 @@
       <c r="K197"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
       <c r="D198"/>
       <c r="E198"/>
       <c r="F198"/>
@@ -3028,9 +3017,9 @@
       <c r="K198"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
+      <c r="A199" s="7"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
       <c r="D199"/>
       <c r="E199"/>
       <c r="F199"/>
@@ -3041,9 +3030,9 @@
       <c r="K199"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
       <c r="D200"/>
       <c r="E200"/>
       <c r="F200"/>
@@ -3054,9 +3043,9 @@
       <c r="K200"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
       <c r="D201"/>
       <c r="E201"/>
       <c r="F201"/>
@@ -3067,9 +3056,9 @@
       <c r="K201"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
+      <c r="A202" s="7"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
       <c r="D202"/>
       <c r="E202"/>
       <c r="F202"/>
@@ -3080,9 +3069,9 @@
       <c r="K202"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
       <c r="D203"/>
       <c r="E203"/>
       <c r="F203"/>
@@ -3093,9 +3082,9 @@
       <c r="K203"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
+      <c r="A204" s="7"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
       <c r="D204"/>
       <c r="E204"/>
       <c r="F204"/>
@@ -3106,9 +3095,9 @@
       <c r="K204"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
+      <c r="A205" s="7"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
       <c r="D205"/>
       <c r="E205"/>
       <c r="F205"/>
@@ -3119,9 +3108,9 @@
       <c r="K205"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
+      <c r="A206" s="7"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
       <c r="D206"/>
       <c r="E206"/>
       <c r="F206"/>
@@ -3132,9 +3121,9 @@
       <c r="K206"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
       <c r="D207"/>
       <c r="E207"/>
       <c r="F207"/>
@@ -3145,9 +3134,9 @@
       <c r="K207"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
       <c r="D208"/>
       <c r="E208"/>
       <c r="F208"/>
@@ -3158,9 +3147,9 @@
       <c r="K208"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
       <c r="D209"/>
       <c r="E209"/>
       <c r="F209"/>
@@ -3171,9 +3160,9 @@
       <c r="K209"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
+      <c r="A210" s="7"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
       <c r="D210"/>
       <c r="E210"/>
       <c r="F210"/>
@@ -3184,9 +3173,9 @@
       <c r="K210"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="9"/>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
       <c r="D211"/>
       <c r="E211"/>
       <c r="F211"/>
@@ -3197,9 +3186,9 @@
       <c r="K211"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
       <c r="D212"/>
       <c r="E212"/>
       <c r="F212"/>
@@ -3210,9 +3199,9 @@
       <c r="K212"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
       <c r="D213"/>
       <c r="E213"/>
       <c r="F213"/>
@@ -3223,9 +3212,9 @@
       <c r="K213"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
+      <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
       <c r="D214"/>
       <c r="E214"/>
       <c r="F214"/>
@@ -3236,9 +3225,9 @@
       <c r="K214"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
       <c r="D215"/>
       <c r="E215"/>
       <c r="F215"/>
@@ -3249,9 +3238,9 @@
       <c r="K215"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
       <c r="D216"/>
       <c r="E216"/>
       <c r="F216"/>
@@ -3262,9 +3251,9 @@
       <c r="K216"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
       <c r="D217"/>
       <c r="E217"/>
       <c r="F217"/>
@@ -3275,9 +3264,9 @@
       <c r="K217"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
+      <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
       <c r="D218"/>
       <c r="E218"/>
       <c r="F218"/>
@@ -3288,9 +3277,9 @@
       <c r="K218"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
       <c r="D219"/>
       <c r="E219"/>
       <c r="F219"/>
@@ -3301,9 +3290,9 @@
       <c r="K219"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
+      <c r="A220" s="7"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
       <c r="D220"/>
       <c r="E220"/>
       <c r="F220"/>
@@ -3314,9 +3303,9 @@
       <c r="K220"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="9"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
+      <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
       <c r="D221"/>
       <c r="E221"/>
       <c r="F221"/>
@@ -3327,9 +3316,9 @@
       <c r="K221"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
+      <c r="A222" s="7"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
       <c r="D222"/>
       <c r="E222"/>
       <c r="F222"/>
@@ -3340,9 +3329,9 @@
       <c r="K222"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
+      <c r="A223" s="7"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="7"/>
       <c r="D223"/>
       <c r="E223"/>
       <c r="F223"/>
@@ -3353,9 +3342,9 @@
       <c r="K223"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
       <c r="D224"/>
       <c r="E224"/>
       <c r="F224"/>
@@ -3366,9 +3355,9 @@
       <c r="K224"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
+      <c r="A225" s="7"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="7"/>
       <c r="D225"/>
       <c r="E225"/>
       <c r="F225"/>
@@ -3379,9 +3368,9 @@
       <c r="K225"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9"/>
+      <c r="A226" s="7"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="7"/>
       <c r="D226"/>
       <c r="E226"/>
       <c r="F226"/>
@@ -3392,9 +3381,9 @@
       <c r="K226"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="9"/>
+      <c r="A227" s="7"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
       <c r="D227"/>
       <c r="E227"/>
       <c r="F227"/>
@@ -3405,9 +3394,9 @@
       <c r="K227"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
+      <c r="A228" s="7"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
       <c r="D228"/>
       <c r="E228"/>
       <c r="F228"/>
@@ -3418,9 +3407,9 @@
       <c r="K228"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
+      <c r="A229" s="7"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
       <c r="D229"/>
       <c r="E229"/>
       <c r="F229"/>
@@ -3431,9 +3420,9 @@
       <c r="K229"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
+      <c r="A230" s="7"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="7"/>
       <c r="D230"/>
       <c r="E230"/>
       <c r="F230"/>
@@ -3444,9 +3433,9 @@
       <c r="K230"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
+      <c r="A231" s="7"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
       <c r="D231"/>
       <c r="E231"/>
       <c r="F231"/>
@@ -3457,9 +3446,9 @@
       <c r="K231"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
+      <c r="A232" s="7"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
       <c r="D232"/>
       <c r="E232"/>
       <c r="F232"/>
@@ -3470,9 +3459,9 @@
       <c r="K232"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="9"/>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
+      <c r="A233" s="7"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
       <c r="D233"/>
       <c r="E233"/>
       <c r="F233"/>
@@ -3483,9 +3472,9 @@
       <c r="K233"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="9"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9"/>
+      <c r="A234" s="7"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="7"/>
       <c r="D234"/>
       <c r="E234"/>
       <c r="F234"/>
@@ -3496,9 +3485,9 @@
       <c r="K234"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="9"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9"/>
+      <c r="A235" s="7"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="7"/>
       <c r="D235"/>
       <c r="E235"/>
       <c r="F235"/>
@@ -3509,9 +3498,9 @@
       <c r="K235"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
+      <c r="A236" s="7"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="7"/>
       <c r="D236"/>
       <c r="E236"/>
       <c r="F236"/>
@@ -3522,9 +3511,9 @@
       <c r="K236"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="9"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
+      <c r="A237" s="7"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="7"/>
       <c r="D237"/>
       <c r="E237"/>
       <c r="F237"/>
@@ -3535,9 +3524,9 @@
       <c r="K237"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
+      <c r="A238" s="7"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
       <c r="D238"/>
       <c r="E238"/>
       <c r="F238"/>
@@ -3548,9 +3537,9 @@
       <c r="K238"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9"/>
+      <c r="A239" s="7"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
       <c r="D239"/>
       <c r="E239"/>
       <c r="F239"/>
@@ -3561,9 +3550,9 @@
       <c r="K239"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="9"/>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9"/>
+      <c r="A240" s="7"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
       <c r="D240"/>
       <c r="E240"/>
       <c r="F240"/>
@@ -3574,9 +3563,9 @@
       <c r="K240"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="9"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9"/>
+      <c r="A241" s="7"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
       <c r="D241"/>
       <c r="E241"/>
       <c r="F241"/>
@@ -3587,9 +3576,9 @@
       <c r="K241"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="9"/>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
+      <c r="A242" s="7"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
       <c r="D242"/>
       <c r="E242"/>
       <c r="F242"/>
@@ -3600,9 +3589,9 @@
       <c r="K242"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="9"/>
-      <c r="B243" s="9"/>
-      <c r="C243" s="9"/>
+      <c r="A243" s="7"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
       <c r="D243"/>
       <c r="E243"/>
       <c r="F243"/>
@@ -3613,9 +3602,9 @@
       <c r="K243"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="9"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="9"/>
+      <c r="A244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="7"/>
       <c r="D244"/>
       <c r="E244"/>
       <c r="F244"/>
@@ -3626,9 +3615,9 @@
       <c r="K244"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="9"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
+      <c r="A245" s="7"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
       <c r="D245"/>
       <c r="E245"/>
       <c r="F245"/>
@@ -3639,9 +3628,9 @@
       <c r="K245"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="9"/>
-      <c r="B246" s="9"/>
-      <c r="C246" s="9"/>
+      <c r="A246" s="7"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
       <c r="D246"/>
       <c r="E246"/>
       <c r="F246"/>
@@ -3652,9 +3641,9 @@
       <c r="K246"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="9"/>
-      <c r="B247" s="9"/>
-      <c r="C247" s="9"/>
+      <c r="A247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
       <c r="D247"/>
       <c r="E247"/>
       <c r="F247"/>
@@ -3665,9 +3654,9 @@
       <c r="K247"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
-      <c r="B248" s="9"/>
-      <c r="C248" s="9"/>
+      <c r="A248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
       <c r="D248"/>
       <c r="E248"/>
       <c r="F248"/>
@@ -3678,9 +3667,9 @@
       <c r="K248"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="9"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
+      <c r="A249" s="7"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="7"/>
       <c r="D249"/>
       <c r="E249"/>
       <c r="F249"/>
@@ -3691,9 +3680,9 @@
       <c r="K249"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="9"/>
-      <c r="B250" s="9"/>
-      <c r="C250" s="9"/>
+      <c r="A250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="7"/>
       <c r="D250"/>
       <c r="E250"/>
       <c r="F250"/>
@@ -3704,9 +3693,9 @@
       <c r="K250"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="9"/>
-      <c r="B251" s="9"/>
-      <c r="C251" s="9"/>
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
       <c r="D251"/>
       <c r="E251"/>
       <c r="F251"/>
@@ -3717,9 +3706,9 @@
       <c r="K251"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="9"/>
-      <c r="B252" s="9"/>
-      <c r="C252" s="9"/>
+      <c r="A252" s="7"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="7"/>
       <c r="D252"/>
       <c r="E252"/>
       <c r="F252"/>
@@ -3730,9 +3719,9 @@
       <c r="K252"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="9"/>
-      <c r="B253" s="9"/>
-      <c r="C253" s="9"/>
+      <c r="A253" s="7"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
       <c r="D253"/>
       <c r="E253"/>
       <c r="F253"/>
@@ -3743,9 +3732,9 @@
       <c r="K253"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
-      <c r="B254" s="9"/>
-      <c r="C254" s="9"/>
+      <c r="A254" s="7"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="7"/>
       <c r="D254"/>
       <c r="E254"/>
       <c r="F254"/>
@@ -3756,9 +3745,9 @@
       <c r="K254"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="9"/>
-      <c r="B255" s="9"/>
-      <c r="C255" s="9"/>
+      <c r="A255" s="7"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
       <c r="D255"/>
       <c r="E255"/>
       <c r="F255"/>
@@ -3769,9 +3758,9 @@
       <c r="K255"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="9"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="9"/>
+      <c r="A256" s="7"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
       <c r="D256"/>
       <c r="E256"/>
       <c r="F256"/>
@@ -3782,9 +3771,9 @@
       <c r="K256"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="9"/>
-      <c r="B257" s="9"/>
-      <c r="C257" s="9"/>
+      <c r="A257" s="7"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
       <c r="D257"/>
       <c r="E257"/>
       <c r="F257"/>
@@ -3795,9 +3784,9 @@
       <c r="K257"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
-      <c r="B258" s="9"/>
-      <c r="C258" s="9"/>
+      <c r="A258" s="7"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
       <c r="D258"/>
       <c r="E258"/>
       <c r="F258"/>
@@ -3808,9 +3797,9 @@
       <c r="K258"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
-      <c r="B259" s="9"/>
-      <c r="C259" s="9"/>
+      <c r="A259" s="7"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="7"/>
       <c r="D259"/>
       <c r="E259"/>
       <c r="F259"/>
@@ -3821,9 +3810,9 @@
       <c r="K259"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
+      <c r="A260" s="7"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
       <c r="D260"/>
       <c r="E260"/>
       <c r="F260"/>
@@ -3834,9 +3823,9 @@
       <c r="K260"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="9"/>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
+      <c r="A261" s="7"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="7"/>
       <c r="D261"/>
       <c r="E261"/>
       <c r="F261"/>
@@ -3847,9 +3836,9 @@
       <c r="K261"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="9"/>
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
+      <c r="A262" s="7"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="7"/>
       <c r="D262"/>
       <c r="E262"/>
       <c r="F262"/>
@@ -3860,9 +3849,9 @@
       <c r="K262"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="9"/>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
+      <c r="A263" s="7"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="7"/>
       <c r="D263"/>
       <c r="E263"/>
       <c r="F263"/>
@@ -3873,9 +3862,9 @@
       <c r="K263"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
-      <c r="B264" s="9"/>
-      <c r="C264" s="9"/>
+      <c r="A264" s="7"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="7"/>
       <c r="D264"/>
       <c r="E264"/>
       <c r="F264"/>
@@ -3886,9 +3875,9 @@
       <c r="K264"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
+      <c r="A265" s="7"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="7"/>
       <c r="D265"/>
       <c r="E265"/>
       <c r="F265"/>
@@ -3899,9 +3888,9 @@
       <c r="K265"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
-      <c r="B266" s="9"/>
-      <c r="C266" s="9"/>
+      <c r="A266" s="7"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="7"/>
       <c r="D266"/>
       <c r="E266"/>
       <c r="F266"/>
@@ -3912,9 +3901,9 @@
       <c r="K266"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
+      <c r="A267" s="7"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="7"/>
       <c r="D267"/>
       <c r="E267"/>
       <c r="F267"/>
@@ -3925,9 +3914,9 @@
       <c r="K267"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="9"/>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
+      <c r="A268" s="7"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="7"/>
       <c r="D268"/>
       <c r="E268"/>
       <c r="F268"/>
@@ -3938,9 +3927,9 @@
       <c r="K268"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
+      <c r="A269" s="7"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="7"/>
       <c r="D269"/>
       <c r="E269"/>
       <c r="F269"/>
@@ -3951,9 +3940,9 @@
       <c r="K269"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
-      <c r="B270" s="9"/>
-      <c r="C270" s="9"/>
+      <c r="A270" s="7"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="7"/>
       <c r="D270"/>
       <c r="E270"/>
       <c r="F270"/>
@@ -3964,9 +3953,9 @@
       <c r="K270"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="9"/>
-      <c r="B271" s="9"/>
-      <c r="C271" s="9"/>
+      <c r="A271" s="7"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="7"/>
       <c r="D271"/>
       <c r="E271"/>
       <c r="F271"/>
@@ -3977,9 +3966,9 @@
       <c r="K271"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="9"/>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
+      <c r="A272" s="7"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
       <c r="D272"/>
       <c r="E272"/>
       <c r="F272"/>
@@ -3990,9 +3979,9 @@
       <c r="K272"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="9"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
+      <c r="A273" s="7"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
       <c r="D273"/>
       <c r="E273"/>
       <c r="F273"/>
@@ -4003,9 +3992,9 @@
       <c r="K273"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="9"/>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
+      <c r="A274" s="7"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="7"/>
       <c r="D274"/>
       <c r="E274"/>
       <c r="F274"/>
@@ -4016,9 +4005,9 @@
       <c r="K274"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9"/>
+      <c r="A275" s="7"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
       <c r="D275"/>
       <c r="E275"/>
       <c r="F275"/>
@@ -4029,9 +4018,9 @@
       <c r="K275"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="9"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
+      <c r="A276" s="7"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="7"/>
       <c r="D276"/>
       <c r="E276"/>
       <c r="F276"/>
@@ -4042,9 +4031,9 @@
       <c r="K276"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
+      <c r="A277" s="7"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="7"/>
       <c r="D277"/>
       <c r="E277"/>
       <c r="F277"/>
@@ -4055,9 +4044,9 @@
       <c r="K277"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="9"/>
-      <c r="B278" s="9"/>
-      <c r="C278" s="9"/>
+      <c r="A278" s="7"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7"/>
       <c r="D278"/>
       <c r="E278"/>
       <c r="F278"/>
@@ -4068,9 +4057,9 @@
       <c r="K278"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="9"/>
-      <c r="B279" s="9"/>
-      <c r="C279" s="9"/>
+      <c r="A279" s="7"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="7"/>
       <c r="D279"/>
       <c r="E279"/>
       <c r="F279"/>
@@ -4081,9 +4070,9 @@
       <c r="K279"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
-      <c r="B280" s="9"/>
-      <c r="C280" s="9"/>
+      <c r="A280" s="7"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="7"/>
       <c r="D280"/>
       <c r="E280"/>
       <c r="F280"/>
@@ -4094,9 +4083,9 @@
       <c r="K280"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="9"/>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9"/>
+      <c r="A281" s="7"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="7"/>
       <c r="D281"/>
       <c r="E281"/>
       <c r="F281"/>
@@ -4107,9 +4096,9 @@
       <c r="K281"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
-      <c r="B282" s="9"/>
-      <c r="C282" s="9"/>
+      <c r="A282" s="7"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
       <c r="D282"/>
       <c r="E282"/>
       <c r="F282"/>
@@ -4120,9 +4109,9 @@
       <c r="K282"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="9"/>
-      <c r="B283" s="9"/>
-      <c r="C283" s="9"/>
+      <c r="A283" s="7"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
       <c r="D283"/>
       <c r="E283"/>
       <c r="F283"/>
@@ -4133,9 +4122,9 @@
       <c r="K283"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="9"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
+      <c r="A284" s="7"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
       <c r="D284"/>
       <c r="E284"/>
       <c r="F284"/>
@@ -4146,9 +4135,9 @@
       <c r="K284"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="9"/>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
+      <c r="A285" s="7"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="7"/>
       <c r="D285"/>
       <c r="E285"/>
       <c r="F285"/>
@@ -4159,9 +4148,9 @@
       <c r="K285"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="9"/>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
+      <c r="A286" s="7"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
       <c r="D286"/>
       <c r="E286"/>
       <c r="F286"/>
@@ -4172,9 +4161,9 @@
       <c r="K286"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="9"/>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
+      <c r="A287" s="7"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
       <c r="D287"/>
       <c r="E287"/>
       <c r="F287"/>
@@ -4185,9 +4174,9 @@
       <c r="K287"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9"/>
+      <c r="A288" s="7"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
       <c r="D288"/>
       <c r="E288"/>
       <c r="F288"/>
@@ -4198,9 +4187,9 @@
       <c r="K288"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="9"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
+      <c r="A289" s="7"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
       <c r="D289"/>
       <c r="E289"/>
       <c r="F289"/>
@@ -4211,9 +4200,9 @@
       <c r="K289"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="9"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
+      <c r="A290" s="7"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
       <c r="D290"/>
       <c r="E290"/>
       <c r="F290"/>
@@ -4224,9 +4213,9 @@
       <c r="K290"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="9"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
+      <c r="A291" s="7"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7"/>
       <c r="D291"/>
       <c r="E291"/>
       <c r="F291"/>
@@ -4237,9 +4226,9 @@
       <c r="K291"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="9"/>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9"/>
+      <c r="A292" s="7"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
       <c r="D292"/>
       <c r="E292"/>
       <c r="F292"/>
@@ -4250,9 +4239,9 @@
       <c r="K292"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="9"/>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9"/>
+      <c r="A293" s="7"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
       <c r="D293"/>
       <c r="E293"/>
       <c r="F293"/>
@@ -4263,9 +4252,9 @@
       <c r="K293"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="9"/>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
+      <c r="A294" s="7"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="7"/>
       <c r="D294"/>
       <c r="E294"/>
       <c r="F294"/>
@@ -4276,9 +4265,9 @@
       <c r="K294"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="9"/>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
+      <c r="A295" s="7"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
       <c r="D295"/>
       <c r="E295"/>
       <c r="F295"/>
@@ -4289,9 +4278,9 @@
       <c r="K295"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="9"/>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
+      <c r="A296" s="7"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="7"/>
       <c r="D296"/>
       <c r="E296"/>
       <c r="F296"/>
@@ -4302,9 +4291,9 @@
       <c r="K296"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="9"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
+      <c r="A297" s="7"/>
+      <c r="B297" s="7"/>
+      <c r="C297" s="7"/>
       <c r="D297"/>
       <c r="E297"/>
       <c r="F297"/>
@@ -4315,9 +4304,9 @@
       <c r="K297"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="9"/>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9"/>
+      <c r="A298" s="7"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="7"/>
       <c r="D298"/>
       <c r="E298"/>
       <c r="F298"/>
@@ -4328,9 +4317,9 @@
       <c r="K298"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="9"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9"/>
+      <c r="A299" s="7"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="7"/>
       <c r="D299"/>
       <c r="E299"/>
       <c r="F299"/>
@@ -4341,9 +4330,9 @@
       <c r="K299"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
+      <c r="A300" s="7"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="7"/>
       <c r="D300"/>
       <c r="E300"/>
       <c r="F300"/>
@@ -4354,9 +4343,9 @@
       <c r="K300"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="9"/>
-      <c r="B301" s="9"/>
-      <c r="C301" s="9"/>
+      <c r="A301" s="7"/>
+      <c r="B301" s="7"/>
+      <c r="C301" s="7"/>
       <c r="D301"/>
       <c r="E301"/>
       <c r="F301"/>
@@ -4367,9 +4356,9 @@
       <c r="K301"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="9"/>
-      <c r="B302" s="9"/>
-      <c r="C302" s="9"/>
+      <c r="A302" s="7"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
       <c r="D302"/>
       <c r="E302"/>
       <c r="F302"/>
@@ -4380,9 +4369,9 @@
       <c r="K302"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="9"/>
-      <c r="B303" s="9"/>
-      <c r="C303" s="9"/>
+      <c r="A303" s="7"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="7"/>
       <c r="D303"/>
       <c r="E303"/>
       <c r="F303"/>
@@ -4393,9 +4382,9 @@
       <c r="K303"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="9"/>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
+      <c r="A304" s="7"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="7"/>
       <c r="D304"/>
       <c r="E304"/>
       <c r="F304"/>
@@ -4406,9 +4395,9 @@
       <c r="K304"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="9"/>
-      <c r="B305" s="9"/>
-      <c r="C305" s="9"/>
+      <c r="A305" s="7"/>
+      <c r="B305" s="7"/>
+      <c r="C305" s="7"/>
       <c r="D305"/>
       <c r="E305"/>
       <c r="F305"/>
@@ -4419,9 +4408,9 @@
       <c r="K305"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="9"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="9"/>
+      <c r="A306" s="7"/>
+      <c r="B306" s="7"/>
+      <c r="C306" s="7"/>
       <c r="D306"/>
       <c r="E306"/>
       <c r="F306"/>
@@ -4432,9 +4421,9 @@
       <c r="K306"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="9"/>
-      <c r="B307" s="9"/>
-      <c r="C307" s="9"/>
+      <c r="A307" s="7"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
       <c r="D307"/>
       <c r="E307"/>
       <c r="F307"/>
@@ -4445,9 +4434,9 @@
       <c r="K307"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="9"/>
-      <c r="B308" s="9"/>
-      <c r="C308" s="9"/>
+      <c r="A308" s="7"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="7"/>
       <c r="D308"/>
       <c r="E308"/>
       <c r="F308"/>
@@ -4458,9 +4447,9 @@
       <c r="K308"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="9"/>
-      <c r="B309" s="9"/>
-      <c r="C309" s="9"/>
+      <c r="A309" s="7"/>
+      <c r="B309" s="7"/>
+      <c r="C309" s="7"/>
       <c r="D309"/>
       <c r="E309"/>
       <c r="F309"/>
@@ -4471,9 +4460,9 @@
       <c r="K309"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="9"/>
-      <c r="B310" s="9"/>
-      <c r="C310" s="9"/>
+      <c r="A310" s="7"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="7"/>
       <c r="D310"/>
       <c r="E310"/>
       <c r="F310"/>
@@ -4484,9 +4473,9 @@
       <c r="K310"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="9"/>
-      <c r="B311" s="9"/>
-      <c r="C311" s="9"/>
+      <c r="A311" s="7"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="7"/>
       <c r="D311"/>
       <c r="E311"/>
       <c r="F311"/>
@@ -4497,9 +4486,9 @@
       <c r="K311"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="9"/>
-      <c r="B312" s="9"/>
-      <c r="C312" s="9"/>
+      <c r="A312" s="7"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="7"/>
       <c r="D312"/>
       <c r="E312"/>
       <c r="F312"/>
@@ -4510,9 +4499,9 @@
       <c r="K312"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="9"/>
-      <c r="B313" s="9"/>
-      <c r="C313" s="9"/>
+      <c r="A313" s="7"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="7"/>
       <c r="D313"/>
       <c r="E313"/>
       <c r="F313"/>
@@ -4523,9 +4512,9 @@
       <c r="K313"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
+      <c r="A314" s="7"/>
+      <c r="B314" s="7"/>
+      <c r="C314" s="7"/>
       <c r="D314"/>
       <c r="E314"/>
       <c r="F314"/>
@@ -4536,9 +4525,9 @@
       <c r="K314"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="9"/>
-      <c r="B315" s="9"/>
-      <c r="C315" s="9"/>
+      <c r="A315" s="7"/>
+      <c r="B315" s="7"/>
+      <c r="C315" s="7"/>
       <c r="D315"/>
       <c r="E315"/>
       <c r="F315"/>
@@ -4549,9 +4538,9 @@
       <c r="K315"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="9"/>
-      <c r="B316" s="9"/>
-      <c r="C316" s="9"/>
+      <c r="A316" s="7"/>
+      <c r="B316" s="7"/>
+      <c r="C316" s="7"/>
       <c r="D316"/>
       <c r="E316"/>
       <c r="F316"/>
@@ -4562,9 +4551,9 @@
       <c r="K316"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="9"/>
-      <c r="B317" s="9"/>
-      <c r="C317" s="9"/>
+      <c r="A317" s="7"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="7"/>
       <c r="D317"/>
       <c r="E317"/>
       <c r="F317"/>
@@ -4575,9 +4564,9 @@
       <c r="K317"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="9"/>
-      <c r="B318" s="9"/>
-      <c r="C318" s="9"/>
+      <c r="A318" s="7"/>
+      <c r="B318" s="7"/>
+      <c r="C318" s="7"/>
       <c r="D318"/>
       <c r="E318"/>
       <c r="F318"/>
@@ -4588,9 +4577,9 @@
       <c r="K318"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="9"/>
-      <c r="B319" s="9"/>
-      <c r="C319" s="9"/>
+      <c r="A319" s="7"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="7"/>
       <c r="D319"/>
       <c r="E319"/>
       <c r="F319"/>
@@ -4601,9 +4590,9 @@
       <c r="K319"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="9"/>
-      <c r="B320" s="9"/>
-      <c r="C320" s="9"/>
+      <c r="A320" s="7"/>
+      <c r="B320" s="7"/>
+      <c r="C320" s="7"/>
       <c r="D320"/>
       <c r="E320"/>
       <c r="F320"/>
@@ -4614,9 +4603,9 @@
       <c r="K320"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="9"/>
-      <c r="B321" s="9"/>
-      <c r="C321" s="9"/>
+      <c r="A321" s="7"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="7"/>
       <c r="D321"/>
       <c r="E321"/>
       <c r="F321"/>
@@ -4627,9 +4616,9 @@
       <c r="K321"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="9"/>
-      <c r="B322" s="9"/>
-      <c r="C322" s="9"/>
+      <c r="A322" s="7"/>
+      <c r="B322" s="7"/>
+      <c r="C322" s="7"/>
       <c r="D322"/>
       <c r="E322"/>
       <c r="F322"/>
@@ -4640,9 +4629,9 @@
       <c r="K322"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="9"/>
-      <c r="B323" s="9"/>
-      <c r="C323" s="9"/>
+      <c r="A323" s="7"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="7"/>
       <c r="D323"/>
       <c r="E323"/>
       <c r="F323"/>
@@ -4653,9 +4642,9 @@
       <c r="K323"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="9"/>
-      <c r="B324" s="9"/>
-      <c r="C324" s="9"/>
+      <c r="A324" s="7"/>
+      <c r="B324" s="7"/>
+      <c r="C324" s="7"/>
       <c r="D324"/>
       <c r="E324"/>
       <c r="F324"/>
@@ -4666,9 +4655,9 @@
       <c r="K324"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="9"/>
-      <c r="B325" s="9"/>
-      <c r="C325" s="9"/>
+      <c r="A325" s="7"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="7"/>
       <c r="D325"/>
       <c r="E325"/>
       <c r="F325"/>
@@ -4679,9 +4668,9 @@
       <c r="K325"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
-      <c r="B326" s="9"/>
-      <c r="C326" s="9"/>
+      <c r="A326" s="7"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="7"/>
       <c r="D326"/>
       <c r="E326"/>
       <c r="F326"/>
@@ -4692,9 +4681,9 @@
       <c r="K326"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="9"/>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
+      <c r="A327" s="7"/>
+      <c r="B327" s="7"/>
+      <c r="C327" s="7"/>
       <c r="D327"/>
       <c r="E327"/>
       <c r="F327"/>
@@ -4705,9 +4694,9 @@
       <c r="K327"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="9"/>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9"/>
+      <c r="A328" s="7"/>
+      <c r="B328" s="7"/>
+      <c r="C328" s="7"/>
       <c r="D328"/>
       <c r="E328"/>
       <c r="F328"/>
@@ -4718,9 +4707,9 @@
       <c r="K328"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="9"/>
-      <c r="B329" s="9"/>
-      <c r="C329" s="9"/>
+      <c r="A329" s="7"/>
+      <c r="B329" s="7"/>
+      <c r="C329" s="7"/>
       <c r="D329"/>
       <c r="E329"/>
       <c r="F329"/>
@@ -4731,9 +4720,9 @@
       <c r="K329"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="9"/>
-      <c r="B330" s="9"/>
-      <c r="C330" s="9"/>
+      <c r="A330" s="7"/>
+      <c r="B330" s="7"/>
+      <c r="C330" s="7"/>
       <c r="D330"/>
       <c r="E330"/>
       <c r="F330"/>
@@ -4744,9 +4733,9 @@
       <c r="K330"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="9"/>
-      <c r="B331" s="9"/>
-      <c r="C331" s="9"/>
+      <c r="A331" s="7"/>
+      <c r="B331" s="7"/>
+      <c r="C331" s="7"/>
       <c r="D331"/>
       <c r="E331"/>
       <c r="F331"/>
@@ -4757,9 +4746,9 @@
       <c r="K331"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="9"/>
-      <c r="B332" s="9"/>
-      <c r="C332" s="9"/>
+      <c r="A332" s="7"/>
+      <c r="B332" s="7"/>
+      <c r="C332" s="7"/>
       <c r="D332"/>
       <c r="E332"/>
       <c r="F332"/>
@@ -4770,9 +4759,9 @@
       <c r="K332"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="9"/>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
+      <c r="A333" s="7"/>
+      <c r="B333" s="7"/>
+      <c r="C333" s="7"/>
       <c r="D333"/>
       <c r="E333"/>
       <c r="F333"/>
@@ -4783,9 +4772,9 @@
       <c r="K333"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="9"/>
-      <c r="B334" s="9"/>
-      <c r="C334" s="9"/>
+      <c r="A334" s="7"/>
+      <c r="B334" s="7"/>
+      <c r="C334" s="7"/>
       <c r="D334"/>
       <c r="E334"/>
       <c r="F334"/>
@@ -4796,9 +4785,9 @@
       <c r="K334"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="9"/>
-      <c r="B335" s="9"/>
-      <c r="C335" s="9"/>
+      <c r="A335" s="7"/>
+      <c r="B335" s="7"/>
+      <c r="C335" s="7"/>
       <c r="D335"/>
       <c r="E335"/>
       <c r="F335"/>
@@ -4809,9 +4798,9 @@
       <c r="K335"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="9"/>
-      <c r="B336" s="9"/>
-      <c r="C336" s="9"/>
+      <c r="A336" s="7"/>
+      <c r="B336" s="7"/>
+      <c r="C336" s="7"/>
       <c r="D336"/>
       <c r="E336"/>
       <c r="F336"/>
@@ -4822,9 +4811,9 @@
       <c r="K336"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="9"/>
-      <c r="B337" s="9"/>
-      <c r="C337" s="9"/>
+      <c r="A337" s="7"/>
+      <c r="B337" s="7"/>
+      <c r="C337" s="7"/>
       <c r="D337"/>
       <c r="E337"/>
       <c r="F337"/>
@@ -4835,9 +4824,9 @@
       <c r="K337"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="9"/>
-      <c r="B338" s="9"/>
-      <c r="C338" s="9"/>
+      <c r="A338" s="7"/>
+      <c r="B338" s="7"/>
+      <c r="C338" s="7"/>
       <c r="D338"/>
       <c r="E338"/>
       <c r="F338"/>
@@ -4848,9 +4837,9 @@
       <c r="K338"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="9"/>
-      <c r="B339" s="9"/>
-      <c r="C339" s="9"/>
+      <c r="A339" s="7"/>
+      <c r="B339" s="7"/>
+      <c r="C339" s="7"/>
       <c r="D339"/>
       <c r="E339"/>
       <c r="F339"/>
@@ -4861,9 +4850,9 @@
       <c r="K339"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="9"/>
-      <c r="B340" s="9"/>
-      <c r="C340" s="9"/>
+      <c r="A340" s="7"/>
+      <c r="B340" s="7"/>
+      <c r="C340" s="7"/>
       <c r="D340"/>
       <c r="E340"/>
       <c r="F340"/>
@@ -6590,62 +6579,62 @@
       <c r="K472"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A473" s="9"/>
-      <c r="B473" s="9"/>
-      <c r="C473" s="9"/>
-      <c r="D473" s="9"/>
-      <c r="E473" s="9"/>
-      <c r="F473" s="9"/>
-      <c r="G473" s="9"/>
-      <c r="H473" s="9"/>
-      <c r="I473" s="9"/>
-      <c r="J473" s="9"/>
-      <c r="K473" s="9"/>
+      <c r="A473" s="7"/>
+      <c r="B473" s="7"/>
+      <c r="C473" s="7"/>
+      <c r="D473" s="7"/>
+      <c r="E473" s="7"/>
+      <c r="F473" s="7"/>
+      <c r="G473" s="7"/>
+      <c r="H473" s="7"/>
+      <c r="I473" s="7"/>
+      <c r="J473" s="7"/>
+      <c r="K473" s="7"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="9"/>
-      <c r="B474" s="9"/>
-      <c r="C474" s="9"/>
-      <c r="D474" s="9"/>
-      <c r="E474" s="9"/>
-      <c r="F474" s="9"/>
-      <c r="G474" s="9"/>
-      <c r="H474" s="9"/>
-      <c r="I474" s="9"/>
-      <c r="J474" s="9"/>
-      <c r="K474" s="9"/>
+      <c r="A474" s="7"/>
+      <c r="B474" s="7"/>
+      <c r="C474" s="7"/>
+      <c r="D474" s="7"/>
+      <c r="E474" s="7"/>
+      <c r="F474" s="7"/>
+      <c r="G474" s="7"/>
+      <c r="H474" s="7"/>
+      <c r="I474" s="7"/>
+      <c r="J474" s="7"/>
+      <c r="K474" s="7"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="9"/>
-      <c r="B475" s="9"/>
-      <c r="C475" s="9"/>
-      <c r="D475" s="9"/>
-      <c r="E475" s="9"/>
-      <c r="F475" s="9"/>
-      <c r="G475" s="9"/>
-      <c r="H475" s="9"/>
-      <c r="I475" s="9"/>
-      <c r="J475" s="9"/>
-      <c r="K475" s="9"/>
+      <c r="A475" s="7"/>
+      <c r="B475" s="7"/>
+      <c r="C475" s="7"/>
+      <c r="D475" s="7"/>
+      <c r="E475" s="7"/>
+      <c r="F475" s="7"/>
+      <c r="G475" s="7"/>
+      <c r="H475" s="7"/>
+      <c r="I475" s="7"/>
+      <c r="J475" s="7"/>
+      <c r="K475" s="7"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" s="9"/>
-      <c r="B476" s="9"/>
-      <c r="C476" s="9"/>
-      <c r="D476" s="9"/>
-      <c r="E476" s="9"/>
-      <c r="F476" s="9"/>
-      <c r="G476" s="9"/>
-      <c r="H476" s="9"/>
-      <c r="I476" s="9"/>
-      <c r="J476" s="9"/>
-      <c r="K476" s="9"/>
+      <c r="A476" s="7"/>
+      <c r="B476" s="7"/>
+      <c r="C476" s="7"/>
+      <c r="D476" s="7"/>
+      <c r="E476" s="7"/>
+      <c r="F476" s="7"/>
+      <c r="G476" s="7"/>
+      <c r="H476" s="7"/>
+      <c r="I476" s="7"/>
+      <c r="J476" s="7"/>
+      <c r="K476" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>